--- a/biology/Zoologie/Bruant/Bruant.xlsx
+++ b/biology/Zoologie/Bruant/Bruant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruant [bʀyɑ] ou Bréant [bʀeɑ̃] sont les noms vernaculaires de petits passereaux, désignant des espèces appartenant à la famille des embérizidés ou des Passerellidae (ainsi que certaines espèces très apparentée (Calcariidae) et autrefois nommées pour la plupart d'entre elles pinsons[réf. nécessaire]. La forme « Bruant » est utilisée dans la composition de nombreux noms normalisés définis par la CINFO. La forme « Bréant » apparaît aujourd'hui comme vieillie.
-L'étymologie de ces termes n'est pas complètement déterminée mais ils semblent dérivés de bruit ou bruire, bruire signifiant faire du bruit[1].
+L'étymologie de ces termes n'est pas complètement déterminée mais ils semblent dérivés de bruit ou bruire, bruire signifiant faire du bruit.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste alphabétique des bruants[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bruant à calotte blanche – Emberiza leucocephalos
